--- a/backend/data/reference/Variable_Dictionary_Full.xlsx
+++ b/backend/data/reference/Variable_Dictionary_Full.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10118"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htshi/Library/CloudStorage/Dropbox/Federal_Spending/contract_flow_share/data_visuallization/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8514379-6208-934F-8192-C99CBACD9821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27040" yWindow="-2200" windowWidth="40960" windowHeight="22440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ACS" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Federal_Contracts" sheetId="3" r:id="rId3"/>
     <sheet name="FINRA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>Variable</t>
   </si>
@@ -73,16 +67,13 @@
     <t># of household</t>
   </si>
   <si>
-    <t>Income &lt;$10K</t>
-  </si>
-  <si>
-    <t>Income &lt;$50K</t>
-  </si>
-  <si>
-    <t>Income &lt;$100K</t>
-  </si>
-  <si>
-    <t>Income &lt;$200K</t>
+    <t>Income &gt;$50K</t>
+  </si>
+  <si>
+    <t>Income &gt;$100K</t>
+  </si>
+  <si>
+    <t>Income &gt;$200K</t>
   </si>
   <si>
     <t>Median household income</t>
@@ -139,16 +130,13 @@
     <t>Total number of households</t>
   </si>
   <si>
-    <t>Households with income: Less than $10,000</t>
-  </si>
-  <si>
-    <t>Households with income: Less than $50,000</t>
-  </si>
-  <si>
-    <t>Households with income: Less than $100,000</t>
-  </si>
-  <si>
-    <t>Households with income: Less than $200,000</t>
+    <t>Households with income: more than $50,000</t>
+  </si>
+  <si>
+    <t>Households with income: more than $100,000</t>
+  </si>
+  <si>
+    <t>Households with income: more than $200,000</t>
   </si>
   <si>
     <t>Median household income (USD)</t>
@@ -337,19 +325,19 @@
     <t>Free Cash Flow / Population</t>
   </si>
   <si>
-    <t>fed_act_obl</t>
-  </si>
-  <si>
-    <t>fed_act_obl_indirect</t>
-  </si>
-  <si>
-    <t>subaward_amount_out</t>
-  </si>
-  <si>
-    <t>subaward_amount_in</t>
-  </si>
-  <si>
-    <t>subaward_amount_net_inflow</t>
+    <t>Federal Contracts</t>
+  </si>
+  <si>
+    <t>Federal Contracts (Indirect)</t>
+  </si>
+  <si>
+    <t>Sub-contract Out</t>
+  </si>
+  <si>
+    <t>Sub-Contract In</t>
+  </si>
+  <si>
+    <t>Net Sub-Contract</t>
   </si>
   <si>
     <t>employment</t>
@@ -358,13 +346,13 @@
     <t>residents</t>
   </si>
   <si>
-    <t>fed_act_obl_per_1000</t>
-  </si>
-  <si>
-    <t>fed_act_obl_indirect_per_1000</t>
-  </si>
-  <si>
-    <t>subaward_amount_net_inflow_per_1000</t>
+    <t>Federal Contracts per 1000 residents</t>
+  </si>
+  <si>
+    <t>Federal Contracts (Indirect) per 1000 residents</t>
+  </si>
+  <si>
+    <t>Net Sub-Contract per 1000 residents</t>
   </si>
   <si>
     <t>Federal contract obligations (direct spending)</t>
@@ -430,17 +418,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -456,7 +436,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -464,51 +444,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -546,7 +500,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -580,7 +534,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -615,10 +568,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -791,199 +743,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -992,255 +936,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>71</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1249,113 +1193,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>109</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>110</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1364,63 +1306,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>125</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>126</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
